--- a/data/belgica_jupiler-pro-league/version0/proximos_partidos.xlsx
+++ b/data/belgica_jupiler-pro-league/version0/proximos_partidos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jupiler Pro League 20222023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Jupiler Pro League 20232024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,133 +636,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28.04.2023 13:45</t>
+          <t>11.08.2023 13:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.647058823529412</v>
+        <v>2.1</v>
       </c>
       <c r="E2" t="n">
         <v>1.235294117647059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>56.11764705882353%</t>
+          <t>57.55%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>47.0%</t>
+          <t>49.529411764705884%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.823529411764707</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.941176470588236</t>
+          <t>9.647058823529411</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5.117647058823529</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>3.764705882352941</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.0588235294117645</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.9411764705882355</t>
+          <t>3.588235294117647</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.3529411764705883</t>
+          <t>2.2941176470588234</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.470588235294118</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>6.588235294117647</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>4.176470588235294</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>1.411764705882353</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>23.823529411764707</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>21.88235294117647</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>3.411764705882353</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>9.941176470588236</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.235294117647058</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -772,368 +772,283 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1.3529411764705883</t>
+          <t>2.2941176470588234</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>501.7647058823529</t>
+          <t>509.6</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>437.94117647058823</t>
+          <t>397.0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>397.7647058823529</t>
+          <t>435.29411764705884</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>349.5882352941176</t>
+          <t>293.11764705882354</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>19.58823529411765</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>15.235294117647058</t>
+          <t>19.705882352941178</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>127.6470588235294</t>
+          <t>118.6</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>92.52941176470588</t>
+          <t>103.88235294117646</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>54.705882352941174</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>40.35294117647059</t>
+          <t>38.11764705882353</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29.04.2023 11:15</t>
+          <t>12.08.2023 09:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Círculo Brujas</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>St. Lieja</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.823529411764706</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>45.88235294117647%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>50.11764705882353%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>15.235294117647058</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>5.529411764705882</t>
+          <t>9.705882352941176</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>6.647058823529412</t>
+          <t>3.6470588235294117</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3.0588235294117645</t>
+          <t>3.8823529411764706</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>12.529411764705882</t>
+          <t>2.176470588235294</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>13.117647058823529</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>6.470588235294118</t>
+          <t>10.411764705882353</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.6470588235294117</t>
+          <t>4.470588235294118</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>28.647058823529413</t>
+          <t>1.5294117647058822</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>19.647058823529413</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+          <t>21.11764705882353</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>3.8823529411764706</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.11764705882352941</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2.3529411764705883</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2.9411764705882355</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12.117647058823529</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>11.352941176470589</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.29411764705882354</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1.6470588235294117</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>2.823529411764706</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>332.6470588235294</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>421.94117647058823</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>205.64705882352942</t>
+          <t>443.7647058823529</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>334.94117647058823</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>18.235294117647058</t>
+          <t>353.4117647058824</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>17.41176470588235</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>121.29411764705883</t>
+          <t>16.176470588235293</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>58.64705882352941</t>
+          <t>88.88235294117646</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>42.470588235294116</t>
+          <t>42.35294117647059</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30.04.2023 11:30</t>
+          <t>12.08.2023 11:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Club Brujas</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.588235294117647</v>
+        <v>1.85</v>
       </c>
       <c r="E4" t="n">
-        <v>1.235294117647059</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>55.1764705882353%</t>
+          <t>51.6%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>57.588235294117645%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.764705882352942</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11.823529411764707</t>
+          <t>12.117647058823529</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6.705882352941177</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.117647058823529</t>
+          <t>4.352941176470588</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.352941176470588</t>
+          <t>5.117647058823529</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.823529411764706</t>
+          <t>3.5294117647058822</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.3529411764705883</t>
+          <t>2.6470588235294117</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>11.647058823529411</t>
+          <t>10.421052631578947</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12.588235294117647</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>5.9411764705882355</t>
+          <t>4.882352941176471</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1143,37 +1058,37 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>17.647058823529413</t>
+          <t>24.526315789473685</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>21.470588235294116</t>
+          <t>19.294117647058822</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2.2941176470588234</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2.9411764705882355</t>
+          <t>3.588235294117647</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>11.470588235294118</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>11.647058823529411</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.058823529411764705</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1183,1007 +1098,1007 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2.411764705882353</t>
+          <t>1.7647058823529411</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>483.3529411764706</t>
+          <t>458.1</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>513.6470588235294</t>
+          <t>400.11764705882354</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>397.0</t>
+          <t>380.7647058823529</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>418.1764705882353</t>
+          <t>315.29411764705884</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>17.58823529411765</t>
+          <t>17.45</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.588235294117647</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>120.11764705882354</t>
+          <t>114.8</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>117.76470588235294</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>57.64705882352941</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>49.294117647058826</t>
+          <t>38.05882352941177</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03.05.2023 13:30</t>
+          <t>13.08.2023 06:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.941176470588235</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="E5" t="n">
-        <v>1.352941176470588</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52.35294117647059%</t>
+          <t>46.11764705882353%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>54.705882352941174%</t>
+          <t>52.88235294117647%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.764705882352942</t>
+          <t>11.705882352941176</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12.117647058823529</t>
+          <t>9.882352941176471</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.764705882352941</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.470588235294118</t>
+          <t>3.588235294117647</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.470588235294118</t>
+          <t>4.647058823529412</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4.176470588235294</t>
+          <t>3.3529411764705883</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>3.1176470588235294</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.4705882352941178</t>
+          <t>2.9411764705882355</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>10.294117647058824</t>
+          <t>11.882352941176471</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.411764705882353</t>
+          <t>13.117647058823529</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6.529411764705882</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4.647058823529412</t>
+          <t>3.8823529411764706</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.7058823529411764</t>
+          <t>1.8235294117647058</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>2.411764705882353</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>25.176470588235293</t>
+          <t>23.176470588235293</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>21.41176470588235</t>
+          <t>21.058823529411764</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2.176470588235294</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>3.7058823529411766</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11.588235294117647</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>11.176470588235293</t>
+          <t>11.588235294117647</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.058823529411764705</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.058823529411764705</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3529411764705883</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1.7058823529411764</t>
+          <t>2.0588235294117645</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>473.05882352941177</t>
+          <t>398.0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>473.94117647058823</t>
+          <t>434.1764705882353</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>380.7647058823529</t>
+          <t>296.5882352941176</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>380.6470588235294</t>
+          <t>339.47058823529414</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>17.41176470588235</t>
+          <t>16.11764705882353</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>18.705882352941178</t>
+          <t>16.823529411764707</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>117.17647058823529</t>
+          <t>114.17647058823529</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>108.05882352941177</t>
+          <t>95.58823529411765</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>54.64705882352941</t>
+          <t>42.8235294117647</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>44.23529411764706</t>
+          <t>40.1764705882353</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06.05.2023 11:15</t>
+          <t>13.08.2023 09:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Brujas</t>
+          <t>Círculo Brujas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.352941176470588</v>
+        <v>1.65</v>
       </c>
       <c r="E6" t="n">
-        <v>2.176470588235294</v>
+        <v>1.9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>44.65%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>51.75%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18.176470588235293</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13.176470588235293</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.352941176470588</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.823529411764706</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5.176470588235294</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0588235294117645</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.6470588235294117</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.31578947368421</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12.411764705882353</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>6.882352941176471</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>23.3125</t>
+          <t>28.42105263157895</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>22.11764705882353</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2.235294117647059</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>9.235294117647058</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>12.294117647058824</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2.7058823529411766</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>515.5882352941177</t>
+          <t>328.0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>442.7647058823529</t>
+          <t>431.6</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>428.47058823529414</t>
+          <t>205.64705882352942</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>352.3529411764706</t>
+          <t>347.0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>16.764705882352942</t>
+          <t>18.105263157894736</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.88235294117647</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>121.2</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>104.58823529411765</t>
+          <t>102.85</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>60.05882352941177</t>
+          <t>57.05</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>46.94117647058823</t>
+          <t>46.35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06.05.2023 13:45</t>
+          <t>13.08.2023 09:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>St. Lieja</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Club Brujas</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E7" t="n">
-        <v>2.117647058823529</v>
+        <v>1.35</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>48.470588235294116%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55.35294117647059%</t>
+          <t>56.9%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>12.764705882352942</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.176470588235293</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4.764705882352941</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3.7058823529411766</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3.3529411764705883</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>11.941176470588236</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12.526315789473685</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>5.176470588235294</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4.764705882352941</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>4.529411764705882</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2.8823529411764706</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.4705882352941178</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>12.176470588235293</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>6.0588235294117645</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5.705882352941177</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.8235294117647058</t>
+          <t>2.588235294117647</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>19.823529411764707</t>
+          <t>22.352941176470587</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>22.375</t>
+          <t>20.94736842105263</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2.176470588235294</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12.058823529411764</t>
+          <t>13.411764705882353</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>10.411764705882353</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>2.2941176470588234</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1.2941176470588236</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>427.05882352941177</t>
+          <t>396.1764705882353</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>507.70588235294116</t>
+          <t>507.3157894736842</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>341.7647058823529</t>
+          <t>298.52941176470586</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>403.6470588235294</t>
+          <t>418.1764705882353</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>18.11764705882353</t>
+          <t>16.647058823529413</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>17.058823529411764</t>
+          <t>13.789473684210526</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>106.11764705882354</t>
+          <t>103.76470588235294</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>116.94117647058823</t>
+          <t>116.6</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>48.588235294117645</t>
+          <t>46.8235294117647</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>45.529411764705884</t>
+          <t>49.7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07.05.2023 06:30</t>
+          <t>13.08.2023 11:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Círculo Brujas</t>
+          <t>St. Lieja</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.352941176470588</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="E8" t="n">
-        <v>1.117647058823529</v>
+        <v>1.25</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>52.35294117647059%</t>
+          <t>52.294117647058826%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>50.15%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>13.294117647058824</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>4.764705882352941</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.4705882352941178</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>5.411764705882353</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5.0588235294117645</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.411764705882353</t>
+          <t>3.1176470588235294</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.764705882352941</t>
+          <t>2.8823529411764706</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>10.352941176470589</t>
+          <t>10.705882352941176</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12.705882352941176</t>
+          <t>13.157894736842104</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5.352941176470588</t>
+          <t>4.352941176470588</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4.588235294117647</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.5294117647058822</t>
+          <t>1.5294117647058822</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>22.352941176470587</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>27.470588235294116</t>
+          <t>19.526315789473685</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.823529411764706</t>
+          <t>2.176470588235294</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>8.352941176470589</t>
+          <t>11.941176470588236</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.058823529411764705</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>1.8235294117647058</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>464.1764705882353</t>
+          <t>470.8235294117647</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>291.6470588235294</t>
+          <t>423.36842105263156</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>377.6470588235294</t>
+          <t>369.11764705882354</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>168.8235294117647</t>
+          <t>334.94117647058823</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>16.41176470588235</t>
+          <t>18.176470588235293</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>20.294117647058822</t>
+          <t>17.05263157894737</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>100.29411764705883</t>
+          <t>110.05882352941177</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>113.6470588235294</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>47.23529411764706</t>
+          <t>53.705882352941174</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>49.411764705882355</t>
+          <t>41.6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07.05.2023 11:30</t>
+          <t>13.08.2023 12:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.117647058823529</v>
+        <v>2.35</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>52.45%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>55.65%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.235294117647058</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11.941176470588236</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5.411764705882353</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3.764705882352941</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.294117647058823</t>
+          <t>2.411764705882353</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>2.4705882352941178</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>11.823529411764707</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5.529411764705882</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2.6470588235294117</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.411764705882353</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>20.941176470588236</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>21.470588235294116</t>
+          <t>21.894736842105264</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>3.764705882352941</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>12.529411764705882</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2193,200 +2108,200 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1.4705882352941178</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>525.4705882352941</t>
+          <t>467.65</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>439.5882352941176</t>
+          <t>513.7</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>435.29411764705884</t>
+          <t>377.6470588235294</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>347.0</t>
+          <t>403.6470588235294</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>18.647058823529413</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>121.17647058823529</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>104.76470588235294</t>
+          <t>115.15</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>53.1764705882353</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>48.05882352941177</t>
+          <t>42.85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13.05.2023 11:15</t>
+          <t>18.08.2023 13:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Círculo Brujas</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.823529411764706</v>
+        <v>1.705882352941176</v>
       </c>
       <c r="E10" t="n">
-        <v>2.117647058823529</v>
+        <v>1.35</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45.88235294117647%</t>
+          <t>52.705882352941174%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>55.35294117647059%</t>
+          <t>53.55%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.235294117647058</t>
+          <t>13.117647058823529</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12.176470588235293</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.529411764705882</t>
+          <t>5.647058823529412</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5.176470588235294</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6.647058823529412</t>
+          <t>4.647058823529412</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3.0588235294117645</t>
+          <t>2.823529411764706</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>3.4705882352941178</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>12.529411764705882</t>
+          <t>13.176470588235293</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11.31578947368421</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.470588235294118</t>
+          <t>5.294117647058823</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5.705882352941177</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.4705882352941178</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>28.647058823529413</t>
+          <t>20.352941176470587</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>22.375</t>
+          <t>21.42105263157895</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2.3529411764705883</t>
+          <t>2.7058823529411766</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2.176470588235294</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12.117647058823529</t>
+          <t>9.588235294117647</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>10.411764705882353</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2396,74 +2311,74 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.7058823529411764</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1.2941176470588236</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>332.6470588235294</t>
+          <t>436.4117647058824</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>507.70588235294116</t>
+          <t>460.85</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>205.64705882352942</t>
+          <t>352.47058823529414</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>403.6470588235294</t>
+          <t>380.6470588235294</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>18.235294117647058</t>
+          <t>18.41176470588235</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>17.058823529411764</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>121.29411764705883</t>
+          <t>95.17647058823529</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>116.94117647058823</t>
+          <t>105.85</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>58.64705882352941</t>
+          <t>51.705882352941174</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>45.529411764705884</t>
+          <t>44.15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13.05.2023 13:45</t>
+          <t>19.08.2023 09:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2473,53 +2388,53 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Círculo Brujas</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="E11" t="n">
-        <v>1.235294117647059</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>47.0%</t>
+          <t>41.55%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.941176470588236</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4.764705882352941</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4.9411764705882355</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2529,97 +2444,97 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.3529411764705883</t>
+          <t>2.764705882352941</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>12.176470588235293</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>6.0588235294117645</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>4.176470588235294</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.8235294117647058</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>19.823529411764707</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>3.411764705882353</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12.058823529411764</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1.3529411764705883</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>427.05882352941177</t>
+          <t>437.4</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>437.94117647058823</t>
+          <t>294.4</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2629,571 +2544,571 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>349.5882352941176</t>
+          <t>168.8235294117647</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>18.11764705882353</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>15.235294117647058</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>106.11764705882354</t>
+          <t>105.55</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>92.52941176470588</t>
+          <t>116.25</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>48.588235294117645</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>40.35294117647059</t>
+          <t>52.7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14.05.2023 06:30</t>
+          <t>19.08.2023 13:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Club Brujas</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.117647058823529</v>
+        <v>1.705882352941176</v>
       </c>
       <c r="E12" t="n">
-        <v>1.235294117647059</v>
+        <v>2.05</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>52.588235294117645%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>57.588235294117645%</t>
+          <t>49.6%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14.235294117647058</t>
+          <t>12.588235294117647</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.823529411764707</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>5.235294117647059</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4.117647058823529</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5.411764705882353</t>
+          <t>4.647058823529412</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4.352941176470588</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.294117647058823</t>
+          <t>2.7058823529411766</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.3529411764705883</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>10.411764705882353</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12.588235294117647</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>5.529411764705882</t>
+          <t>6.529411764705882</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5.9411764705882355</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2.6470588235294117</t>
+          <t>2.4705882352941178</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.7058823529411764</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>20.941176470588236</t>
+          <t>26.11764705882353</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>21.470588235294116</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>2.3529411764705883</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2.9411764705882355</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>10.117647058823529</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>11.647058823529411</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1.4705882352941178</t>
+          <t>1.2941176470588236</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2.411764705882353</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>525.4705882352941</t>
+          <t>438.3529411764706</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>513.6470588235294</t>
+          <t>422.4</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>435.29411764705884</t>
+          <t>336.88235294117646</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>418.1764705882353</t>
+          <t>352.3529411764706</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>18.647058823529413</t>
+          <t>15.882352941176471</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>13.588235294117647</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>121.17647058823529</t>
+          <t>98.3529411764706</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>117.76470588235294</t>
+          <t>100.4</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>53.1764705882353</t>
+          <t>50.11764705882353</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>49.294117647058826</t>
+          <t>44.6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14.05.2023 11:30</t>
+          <t>20.08.2023 06:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.941176470588235</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>52.35294117647059%</t>
+          <t>55.23529411764706%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.764705882352942</t>
+          <t>15.058823529411764</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11.941176470588236</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5.764705882352941</t>
+          <t>5.529411764705882</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5.470588235294118</t>
+          <t>5.588235294117647</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3.764705882352941</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>2.3529411764705883</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>10.294117647058824</t>
+          <t>12.176470588235293</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>11.823529411764707</t>
+          <t>10.157894736842104</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>6.529411764705882</t>
+          <t>6.647058823529412</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>2.235294117647059</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>18.705882352941178</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>19.526315789473685</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.7058823529411766</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>10.588235294117647</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.11764705882352941</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
           <t>1.7058823529411764</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.411764705882353</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>25.176470588235293</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>21.470588235294116</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>2.176470588235294</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>3.764705882352941</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>12.529411764705882</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0.058823529411764705</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>0.11764705882352941</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>473.05882352941177</t>
+          <t>504.88235294117646</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>439.5882352941176</t>
+          <t>440.5263157894737</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>380.7647058823529</t>
+          <t>421.7647058823529</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>347.0</t>
+          <t>349.5882352941176</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>17.41176470588235</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>15.578947368421053</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>117.17647058823529</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>104.76470588235294</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>54.64705882352941</t>
+          <t>53.705882352941174</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>48.05882352941177</t>
+          <t>40.5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20.05.2023 11:15</t>
+          <t>20.08.2023 09:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>St. Lieja</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.352941176470588</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.411764705882353</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>52.35294117647059%</t>
+          <t>54.45%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>50.11764705882353%</t>
+          <t>51.35294117647059%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>14.45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
+          <t>10.411764705882353</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
+          <t>3.411764705882353</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.411764705882353</t>
+          <t>3.823529411764706</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>10.352941176470589</t>
+          <t>11.947368421052632</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13.117647058823529</t>
+          <t>9.764705882352942</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5.352941176470588</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2.5294117647058822</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>1.5294117647058822</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>18.526315789473685</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>19.647058823529413</t>
+          <t>20.294117647058822</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2.823529411764706</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2.9411764705882355</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>8.352941176470589</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3203,79 +3118,79 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.11764705882352941</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2.823529411764706</t>
+          <t>2.3529411764705883</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>464.1764705882353</t>
+          <t>470.5263157894737</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>421.94117647058823</t>
+          <t>459.7647058823529</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>377.6470588235294</t>
+          <t>397.0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>334.94117647058823</t>
+          <t>359.05882352941177</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>16.41176470588235</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>17.41176470588235</t>
+          <t>19.823529411764707</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>100.29411764705883</t>
+          <t>116.9</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>47.23529411764706</t>
+          <t>56.75</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>42.470588235294116</t>
+          <t>47.35294117647059</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20.05.2023 13:45</t>
+          <t>20.08.2023 09:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3285,18 +3200,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Círculo Brujas</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.647058823529412</v>
+        <v>1.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.117647058823529</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56.11764705882353%</t>
+          <t>56.25%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3306,32 +3221,32 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15.823529411764707</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>9.529411764705882</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.117647058823529</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.4705882352941178</t>
+          <t>3.235294117647059</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.0588235294117645</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5.0588235294117645</t>
+          <t>4.411764705882353</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3341,67 +3256,67 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.764705882352941</t>
+          <t>1.8823529411764706</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
+          <t>11.052631578947368</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12.705882352941176</t>
+          <t>13.176470588235293</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.588235294117647</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>4.588235294117647</t>
+          <t>3.3529411764705883</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>1.3529411764705883</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>23.823529411764707</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>27.470588235294116</t>
+          <t>21.941176470588236</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>3.2941176470588234</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>9.941176470588236</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>13.352941176470589</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3411,27 +3326,27 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>2.1176470588235294</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>501.7647058823529</t>
+          <t>501.42105263157896</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>291.6470588235294</t>
+          <t>371.7647058823529</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3441,44 +3356,44 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>168.8235294117647</t>
+          <t>272.11764705882354</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>19.58823529411765</t>
+          <t>19.263157894736842</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>20.294117647058822</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>127.6470588235294</t>
+          <t>124.55</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>113.6470588235294</t>
+          <t>98.70588235294117</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>54.705882352941174</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>49.411764705882355</t>
+          <t>35.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21.05.2023 06:30</t>
+          <t>20.08.2023 11:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3488,53 +3403,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.352941176470588</v>
+        <v>2.2</v>
       </c>
       <c r="E16" t="n">
-        <v>1.352941176470588</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>58.4%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>54.705882352941174%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18.176470588235293</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>12.117647058823529</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7.352941176470588</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>4.470588235294118</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6.823529411764706</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4.176470588235294</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3542,69 +3442,34 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>3.4705882352941178</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>13.0</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>11.411764705882353</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.882352941176471</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>4.647058823529412</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1.8823529411764706</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>23.3125</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>21.41176470588235</t>
+          <t>23.105263157894736</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2.235294117647059</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2.4705882352941178</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>9.235294117647058</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>11.176470588235293</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3612,29 +3477,14 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>0.058823529411764705</t>
-        </is>
-      </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1.7058823529411764</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>515.5882352941177</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>473.94117647058823</t>
+          <t>517.8</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3642,249 +3492,229 @@
           <t>428.47058823529414</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>380.6470588235294</t>
-        </is>
-      </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>16.764705882352942</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>18.705882352941178</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>108.05882352941177</t>
+          <t>129.35</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>60.05882352941177</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>44.23529411764706</t>
+          <t>57.85</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21.05.2023 11:30</t>
+          <t>20.08.2023 12:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.588235294117647</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E17" t="n">
-        <v>2.176470588235294</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55.1764705882353%</t>
+          <t>48.94117647058823%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>45.05882352941177%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15.764705882352942</t>
+          <t>12.294117647058824</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13.176470588235293</t>
+          <t>9.588235294117647</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>6.705882352941177</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.235294117647059</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.294117647058823</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5.176470588235294</t>
+          <t>3.1176470588235294</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2.823529411764706</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3.235294117647059</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>13.470588235294118</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>11.823529411764707</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4.411764705882353</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4.411764705882353</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2.3529411764705883</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2.1176470588235294</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>24.529411764705884</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>22.294117647058822</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>3.823529411764706</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>11.647058823529411</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>12.411764705882353</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>2.4705882352941178</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1.7647058823529411</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>17.647058823529413</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>22.11764705882353</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>4.235294117647059</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11.529411764705882</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>0.17647058823529413</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>0.11764705882352941</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
         <is>
           <t>2.2941176470588234</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>1.9411764705882353</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>11.470588235294118</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>12.294117647058824</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0.058823529411764705</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>0.17647058823529413</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>1.8823529411764706</t>
-        </is>
-      </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2.7058823529411766</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>483.3529411764706</t>
+          <t>381.5882352941176</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>442.7647058823529</t>
+          <t>373.52941176470586</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>397.0</t>
+          <t>281.05882352941177</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>352.3529411764706</t>
+          <t>281.3529411764706</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>17.58823529411765</t>
+          <t>18.058823529411764</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>17.88235294117647</t>
+          <t>17.941176470588236</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>120.11764705882354</t>
+          <t>98.82352941176471</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>104.58823529411765</t>
+          <t>91.70588235294117</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>57.64705882352941</t>
+          <t>42.76470588235294</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>46.94117647058823</t>
+          <t>37.294117647058826</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27.05.2023 11:15</t>
+          <t>26.08.2023 09:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3894,53 +3724,53 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="E18" t="n">
-        <v>2.117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52.35294117647059%</t>
+          <t>52.45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>55.35294117647059%</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12.176470588235293</t>
+          <t>9.705882352941176</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.176470588235294</t>
+          <t>3.6470588235294117</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>3.8823529411764706</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3950,67 +3780,67 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>2.176470588235294</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>10.352941176470589</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.411764705882353</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5.352941176470588</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5.705882352941177</t>
+          <t>4.470588235294118</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.5294117647058822</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.5294117647058822</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>22.375</t>
+          <t>21.11764705882353</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2.823529411764706</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2.176470588235294</t>
+          <t>3.8823529411764706</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>8.352941176470589</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>10.411764705882353</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -4020,27 +3850,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.11764705882352941</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1.2941176470588236</t>
+          <t>2.3529411764705883</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>464.1764705882353</t>
+          <t>467.65</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>507.70588235294116</t>
+          <t>443.7647058823529</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4050,90 +3880,90 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>403.6470588235294</t>
+          <t>353.4117647058824</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>16.41176470588235</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>17.058823529411764</t>
+          <t>16.176470588235293</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>100.29411764705883</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>116.94117647058823</t>
+          <t>88.88235294117646</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>47.23529411764706</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>45.529411764705884</t>
+          <t>42.35294117647059</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27.05.2023 13:45</t>
+          <t>26.08.2023 11:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>St. Lieja</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Círculo Brujas</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E19" t="n">
-        <v>1.117647058823529</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>48.470588235294116%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12.470588235294118</t>
+          <t>12.764705882352942</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>12.117647058823529</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.823529411764706</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.4705882352941178</t>
+          <t>4.352941176470588</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4143,357 +3973,357 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5.0588235294117645</t>
+          <t>5.117647058823529</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>3.7058823529411766</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.764705882352941</t>
+          <t>2.6470588235294117</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>12.176470588235293</t>
+          <t>11.941176470588236</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12.705882352941176</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6.0588235294117645</t>
+          <t>5.176470588235294</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>4.588235294117647</t>
+          <t>4.882352941176471</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.8235294117647058</t>
+          <t>2.588235294117647</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>1.7058823529411764</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>19.823529411764707</t>
+          <t>22.352941176470587</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>27.470588235294116</t>
+          <t>19.294117647058822</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>3.588235294117647</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12.058823529411764</t>
+          <t>13.411764705882353</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>11.470588235294118</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.11764705882352941</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>2.0588235294117645</t>
+          <t>2.2941176470588234</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>1.7647058823529411</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>427.05882352941177</t>
+          <t>396.1764705882353</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>291.6470588235294</t>
+          <t>400.11764705882354</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>341.7647058823529</t>
+          <t>298.52941176470586</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>168.8235294117647</t>
+          <t>315.29411764705884</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>18.11764705882353</t>
+          <t>16.647058823529413</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>20.294117647058822</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>106.11764705882354</t>
+          <t>103.76470588235294</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>113.6470588235294</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>48.588235294117645</t>
+          <t>46.8235294117647</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>49.411764705882355</t>
+          <t>38.05882352941177</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28.05.2023 06:30</t>
+          <t>26.08.2023 13:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>St. Lieja</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.117647058823529</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E20" t="n">
-        <v>2.176470588235294</v>
+        <v>1.25</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>48.94117647058823%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>50.15%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.235294117647058</t>
+          <t>12.294117647058824</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13.176470588235293</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>5.411764705882353</t>
+          <t>5.294117647058823</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5.176470588235294</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4.294117647058823</t>
+          <t>2.823529411764706</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8823529411764706</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>13.470588235294118</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12.411764705882353</t>
+          <t>13.157894736842104</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>5.529411764705882</t>
+          <t>4.411764705882353</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2.6470588235294117</t>
+          <t>2.3529411764705883</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>20.941176470588236</t>
+          <t>24.529411764705884</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>22.11764705882353</t>
+          <t>19.526315789473685</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.823529411764706</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11.294117647058824</t>
+          <t>11.529411764705882</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>12.294117647058824</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0.17647058823529413</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>1.4705882352941178</t>
+          <t>2.2941176470588234</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2.7058823529411766</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>525.4705882352941</t>
+          <t>381.5882352941176</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>442.7647058823529</t>
+          <t>423.36842105263156</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>435.29411764705884</t>
+          <t>281.05882352941177</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>352.3529411764706</t>
+          <t>334.94117647058823</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>18.647058823529413</t>
+          <t>18.058823529411764</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>17.88235294117647</t>
+          <t>17.05263157894737</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>121.17647058823529</t>
+          <t>98.82352941176471</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>104.58823529411765</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>53.1764705882353</t>
+          <t>42.76470588235294</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>46.94117647058823</t>
+          <t>41.6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>28.05.2023 11:30</t>
+          <t>27.08.2023 06:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4507,49 +4337,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.352941176470588</v>
+        <v>2.2</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>58.23529411764706%</t>
+          <t>58.4%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>52.470588235294116%</t>
+          <t>51.75%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>18.176470588235293</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11.941176470588236</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.352941176470588</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.529411764705882</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6.823529411764706</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3.764705882352941</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4569,57 +4399,57 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11.823529411764707</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>6.882352941176471</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1.411764705882353</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>23.3125</t>
+          <t>23.105263157894736</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>21.470588235294116</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2.235294117647059</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>3.764705882352941</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>9.235294117647058</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>12.529411764705882</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4629,27 +4459,27 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>515.5882352941177</t>
+          <t>517.8</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>439.5882352941176</t>
+          <t>431.6</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4664,363 +4494,363 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>16.764705882352942</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>15.176470588235293</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>129.35</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>104.76470588235294</t>
+          <t>102.85</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>60.05882352941177</t>
+          <t>57.85</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>48.05882352941177</t>
+          <t>46.35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03.06.2023 13:30</t>
+          <t>27.08.2023 09:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Círculo Brujas</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Westerlo</t>
-        </is>
-      </c>
       <c r="D22" t="n">
-        <v>1.823529411764706</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="E22" t="n">
-        <v>1.235294117647059</v>
+        <v>1.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>45.88235294117647%</t>
+          <t>46.11764705882353%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>47.0%</t>
+          <t>41.55%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15.235294117647058</t>
+          <t>11.705882352941176</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.941176470588236</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5.529411764705882</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6.647058823529412</t>
+          <t>4.647058823529412</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4.9411764705882355</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.0588235294117645</t>
+          <t>3.1176470588235294</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2.3529411764705883</t>
+          <t>2.764705882352941</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>12.529411764705882</t>
+          <t>11.882352941176471</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>6.470588235294118</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>4.176470588235294</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.8235294117647058</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>28.647058823529413</t>
+          <t>23.176470588235293</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>19.294117647058822</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2.3529411764705883</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>3.411764705882353</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12.117647058823529</t>
+          <t>11.588235294117647</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>1.6470588235294117</t>
+          <t>1.3529411764705883</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>1.3529411764705883</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>332.6470588235294</t>
+          <t>398.0</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>437.94117647058823</t>
+          <t>294.4</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>205.64705882352942</t>
+          <t>296.5882352941176</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>349.5882352941176</t>
+          <t>168.8235294117647</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>18.235294117647058</t>
+          <t>16.11764705882353</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>15.235294117647058</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>121.29411764705883</t>
+          <t>114.17647058823529</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>92.52941176470588</t>
+          <t>116.25</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>58.64705882352941</t>
+          <t>42.8235294117647</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>40.35294117647059</t>
+          <t>52.7</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03.06.2023 13:30</t>
+          <t>27.08.2023 11:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>St. Lieja</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.647058823529412</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E23" t="n">
-        <v>1.411764705882353</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>56.11764705882353%</t>
+          <t>55.23529411764706%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>50.11764705882353%</t>
+          <t>51.35294117647059%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15.823529411764707</t>
+          <t>15.058823529411764</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
+          <t>10.411764705882353</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.117647058823529</t>
+          <t>5.529411764705882</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3.5294117647058822</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.0588235294117645</t>
+          <t>5.588235294117647</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
+          <t>3.411764705882353</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.6470588235294117</t>
+          <t>3.9411764705882355</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2.8823529411764706</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>10.823529411764707</t>
+          <t>12.176470588235293</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13.117647058823529</t>
+          <t>9.764705882352942</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6.588235294117647</t>
+          <t>6.647058823529412</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>4.411764705882353</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.7647058823529411</t>
+          <t>2.235294117647059</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1.9411764705882353</t>
+          <t>1.5294117647058822</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>23.823529411764707</t>
+          <t>18.705882352941178</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>19.647058823529413</t>
+          <t>20.294117647058822</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2.588235294117647</t>
+          <t>2.7058823529411766</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2.9411764705882355</t>
+          <t>4.176470588235294</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>9.941176470588236</t>
+          <t>10.588235294117647</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5030,478 +4860,1526 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.11764705882352941</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.11764705882352941</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>1.5294117647058822</t>
+          <t>1.7058823529411764</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2.823529411764706</t>
+          <t>2.3529411764705883</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>501.7647058823529</t>
+          <t>504.88235294117646</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>421.94117647058823</t>
+          <t>459.7647058823529</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>397.7647058823529</t>
+          <t>421.7647058823529</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>334.94117647058823</t>
+          <t>359.05882352941177</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>19.58823529411765</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>17.41176470588235</t>
+          <t>19.823529411764707</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>127.6470588235294</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>54.705882352941174</t>
+          <t>53.705882352941174</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>42.470588235294116</t>
+          <t>47.35294117647059</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04.06.2023 11:30</t>
+          <t>28.08.2023 09:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.588235294117647</v>
+        <v>2.1</v>
       </c>
       <c r="E24" t="n">
-        <v>1.352941176470588</v>
+        <v>2.25</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>55.1764705882353%</t>
+          <t>57.55%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>54.705882352941174%</t>
+          <t>55.65%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15.764705882352942</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12.117647058823529</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6.705882352941177</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.470588235294118</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5.235294117647059</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.176470588235294</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3.823529411764706</t>
+          <t>4.294117647058823</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3.4705882352941178</t>
+          <t>2.4705882352941178</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>11.647058823529411</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11.411764705882353</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>4.647058823529412</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>17.647058823529413</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>21.41176470588235</t>
+          <t>21.894736842105264</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2.2941176470588234</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2.4705882352941178</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11.470588235294118</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>11.176470588235293</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>0.058823529411764705</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0.058823529411764705</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1.8823529411764706</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1.7058823529411764</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>483.3529411764706</t>
+          <t>509.6</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>473.94117647058823</t>
+          <t>513.7</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>397.0</t>
+          <t>435.29411764705884</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>380.6470588235294</t>
+          <t>403.6470588235294</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>17.58823529411765</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>18.705882352941178</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>120.11764705882354</t>
+          <t>118.6</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>108.05882352941177</t>
+          <t>115.15</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>57.64705882352941</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>44.23529411764706</t>
+          <t>42.85</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04.06.2023 11:30</t>
+          <t>28.08.2023 11:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Royale Union SG</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>49.6%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>422.4</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>352.3529411764706</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>100.4</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>44.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01.09.2023 13:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.705882352941176</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.235294117647059</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>52.705882352941174%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>49.529411764705884%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13.117647058823529</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>9.647058823529411</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>5.647058823529412</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3.764705882352941</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>4.647058823529412</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>3.588235294117647</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.823529411764706</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.2941176470588234</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>13.176470588235293</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>15.470588235294118</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>5.294117647058823</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>3.9411764705882355</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1.4705882352941178</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1.411764705882353</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>20.352941176470587</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>21.88235294117647</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2.7058823529411766</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>3.9411764705882355</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>9.588235294117647</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>12.235294117647058</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>0.17647058823529413</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>1.7058823529411764</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>2.2941176470588234</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>436.4117647058824</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>352.47058823529414</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>293.11764705882354</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>18.41176470588235</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>19.705882352941178</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>95.17647058823529</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>103.88235294117646</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>51.705882352941174</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>38.11764705882353</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02.09.2023 09:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Círculo Brujas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>44.65%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>47.4%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>3.0588235294117645</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2.3529411764705883</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>12.31578947368421</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>10.157894736842104</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>28.42105263157895</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>19.526315789473685</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>440.5263157894737</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>205.64705882352942</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>349.5882352941176</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>18.105263157894736</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>15.578947368421053</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>121.2</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>57.05</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>40.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02.09.2023 11:15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.705882352941176</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>52.588235294117645%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>45.05882352941177%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>12.588235294117647</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>9.588235294117647</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>5.235294117647059</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3.235294117647059</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>4.647058823529412</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>3.1176470588235294</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.7058823529411766</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>3.235294117647059</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>10.411764705882353</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>11.823529411764707</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6.529411764705882</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>4.411764705882353</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2.4705882352941178</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2.1176470588235294</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>26.11764705882353</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>22.294117647058822</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2.3529411764705883</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>4.235294117647059</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>10.117647058823529</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>0.17647058823529413</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>0.11764705882352941</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>1.2941176470588236</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>438.3529411764706</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>373.52941176470586</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>336.88235294117646</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>281.3529411764706</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>15.882352941176471</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>17.941176470588236</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>98.3529411764706</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>91.70588235294117</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>50.11764705882353</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>37.294117647058826</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02.09.2023 13:45</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>St. Lieja</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>53.0%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2.8823529411764706</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>437.4</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>341.7647058823529</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>105.55</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03.09.2023 06:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Club Brujas</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1.941176470588235</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.235294117647059</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>52.35294117647059%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>57.588235294117645%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>14.764705882352942</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>11.823529411764707</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>5.764705882352941</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>4.117647058823529</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>5.470588235294118</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>4.352941176470588</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="D30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>56.9%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>15.8</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>3.6470588235294117</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>3.3529411764705883</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>11.052631578947368</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>12.526315789473685</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>20.94736842105263</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>501.42105263157896</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>507.3157894736842</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>397.7647058823529</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>418.1764705882353</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>19.263157894736842</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>13.789473684210526</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>124.55</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>116.6</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>03.09.2023 09:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>51.6%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>53.55%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>3.5294117647058822</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>3.3529411764705883</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>10.294117647058824</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>12.588235294117647</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>6.529411764705882</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>5.9411764705882355</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>1.7058823529411764</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>1.7058823529411764</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>25.176470588235293</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>21.470588235294116</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>2.176470588235294</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2.9411764705882355</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>11.647058823529411</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>0.058823529411764705</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>0.11764705882352941</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>3.4705882352941178</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>10.421052631578947</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>11.31578947368421</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>2.411764705882353</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>473.05882352941177</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>513.6470588235294</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>24.526315789473685</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>21.42105263157895</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>458.1</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>460.85</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
         <is>
           <t>380.7647058823529</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>418.1764705882353</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>17.41176470588235</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>13.588235294117647</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>117.17647058823529</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>117.76470588235294</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>54.64705882352941</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>49.294117647058826</t>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>380.6470588235294</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>114.8</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>105.85</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>44.15</t>
         </is>
       </c>
     </row>
